--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SkillProto" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -32,7 +32,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：秒
+          <t xml:space="preserve">：毫秒
 </t>
         </r>
       </text>
@@ -133,7 +133,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -1074,7 +1074,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1380,20 +1380,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19:H29"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
-    <col min="10" max="10" width="23.75" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1687,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1740,7 +1740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1002</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1772,7 +1772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1002</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1804,7 +1804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1002</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1836,7 +1836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1868,7 +1868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1900,7 +1900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1003</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1003</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1964,7 +1964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1003</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1996,7 +1996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -2028,7 +2028,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2060,7 +2060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2092,7 +2092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1004</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2124,7 +2124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1004</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -2156,7 +2156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1004</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -2188,7 +2188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -2220,7 +2220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1005</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -2252,7 +2252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1005</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -2282,7 +2282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1005</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -2312,7 +2312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1005</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F29">
         <v>6</v>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SkillProto" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -32,7 +32,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -98,27 +98,55 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-单位</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
+执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">的间隔时间
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：表示不执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
       </text>
     </comment>
@@ -133,7 +161,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -163,7 +191,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：秒
+          <t xml:space="preserve">：毫秒
 </t>
         </r>
       </text>
@@ -175,70 +203,43 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>无</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击
+单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
+应包括技能时长
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>加光环</t>
         </r>
       </text>
     </comment>
@@ -249,22 +250,50 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-技能影响范围
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>无</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击
 </t>
         </r>
         <r>
@@ -274,76 +303,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>仅</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>object
-1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">格
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：全体</t>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加光环</t>
         </r>
       </text>
     </comment>
@@ -358,7 +328,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -369,26 +339,86 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>object</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>加光环</t>
+技能影响范围
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>object
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">格
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：全体</t>
         </r>
       </text>
     </comment>
@@ -399,10 +429,55 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>object</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加光环</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -722,7 +797,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -774,10 +849,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -839,22 +910,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>施法时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>object</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cast_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>动作</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -959,10 +1018,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cd_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>这里是描述</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -972,6 +1027,51 @@
   </si>
   <si>
     <t>auras#rate_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>itv_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能6</t>
+  </si>
+  <si>
+    <t>技能7</t>
+  </si>
+  <si>
+    <t>技能8</t>
+  </si>
+  <si>
+    <t>技能时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1174,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1090,7 +1190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1376,59 +1476,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10:F29"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="23.36328125" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1439,101 +1543,110 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1541,34 +1654,37 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
         <v>2000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4000</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1576,34 +1692,37 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
         <v>2000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4000</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -1611,34 +1730,37 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
         <v>2000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4000</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1646,34 +1768,37 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
         <v>2000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4000</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1681,34 +1806,37 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
         <v>2000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4000</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1716,31 +1844,34 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>3000</v>
       </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
       <c r="G10">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1002</v>
       </c>
@@ -1748,31 +1879,34 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>3000</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
       <c r="G11">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1002</v>
       </c>
@@ -1780,31 +1914,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>3000</v>
       </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
       <c r="G12">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1002</v>
       </c>
@@ -1812,31 +1949,34 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>3000</v>
       </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
       <c r="G13">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -1844,31 +1984,34 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>3000</v>
       </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
       <c r="G14">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1876,31 +2019,34 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
         <v>3000</v>
       </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
       <c r="G15">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1003</v>
       </c>
@@ -1908,31 +2054,34 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
         <v>3000</v>
       </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
       <c r="G16">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1003</v>
       </c>
@@ -1940,31 +2089,34 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
         <v>3000</v>
       </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
       <c r="G17">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1003</v>
       </c>
@@ -1972,31 +2124,34 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
         <v>3000</v>
       </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
       <c r="G18">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -2004,31 +2159,34 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
         <v>3000</v>
       </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
       <c r="G19">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -2036,31 +2194,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
         <v>3000</v>
       </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
       <c r="G20">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -2068,31 +2229,34 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
         <v>3000</v>
       </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
       <c r="G21">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1004</v>
       </c>
@@ -2100,31 +2264,34 @@
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
         <v>3000</v>
       </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
       <c r="G22">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1004</v>
       </c>
@@ -2132,31 +2299,34 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
         <v>3000</v>
       </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
       <c r="G23">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1004</v>
       </c>
@@ -2164,31 +2334,34 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
         <v>3000</v>
       </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
       <c r="G24">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2196,31 +2369,34 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
         <v>3000</v>
       </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
       <c r="G25">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1005</v>
       </c>
@@ -2228,118 +2404,136 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
         <v>3000</v>
       </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
       <c r="G26">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1005</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27">
         <v>3000</v>
       </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
       <c r="G27">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1005</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28">
         <v>3000</v>
       </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
       <c r="G28">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1005</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
         <v>3000</v>
       </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
       <c r="G29">
-        <v>2</v>
+        <v>6000</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>51</v>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -72,7 +72,47 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>敌人</t>
+          <t xml:space="preserve">乙方全体
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">敌人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>敌方全体</t>
         </r>
       </text>
     </comment>
@@ -797,7 +837,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -938,46 +978,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20_2001001|80_2002001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_2001002|80_2002002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_2001003|80_2002004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_2001004|80_2002004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_2001005|80_2002005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100_2003001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100_2003002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100_2003005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100_2003004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100_2003003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击时附加属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1026,10 +1026,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>auras#rate_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>间隔时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1072,6 +1068,39 @@
   </si>
   <si>
     <t>lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>auras#rate_id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_2001_1|80_2002_1</t>
+  </si>
+  <si>
+    <t>20_2001_2|80_2002_2</t>
+  </si>
+  <si>
+    <t>90_2003_1</t>
+  </si>
+  <si>
+    <t>90_2003_2</t>
+  </si>
+  <si>
+    <t>90_2003_3</t>
+  </si>
+  <si>
+    <t>90_2003_4</t>
+  </si>
+  <si>
+    <t>90_2003_5</t>
+  </si>
+  <si>
+    <t>20_2001_1|80_2002_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_2001_1|80_2002_5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1480,7 +1509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1508,13 +1537,13 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>19</v>
@@ -1526,10 +1555,10 @@
         <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1546,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
@@ -1567,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1575,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
@@ -1599,13 +1628,13 @@
         <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1622,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
@@ -1643,7 +1672,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1675,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1713,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1751,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -1789,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1827,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1865,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1900,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1935,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1970,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2005,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2040,10 +2069,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2075,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -2110,10 +2139,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -2145,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2180,10 +2209,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2215,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -2250,10 +2279,10 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -2285,10 +2314,10 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -2320,10 +2349,10 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -2355,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -2390,10 +2419,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -2425,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -2439,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2460,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -2474,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2495,10 +2524,10 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -2509,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2530,10 +2559,10 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -1509,7 +1509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -1022,10 +1022,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>add_attr#id_val</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>间隔时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1071,36 +1067,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>auras#rate_id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_2001_1|80_2002_1</t>
-  </si>
-  <si>
-    <t>20_2001_2|80_2002_2</t>
-  </si>
-  <si>
-    <t>90_2003_1</t>
-  </si>
-  <si>
-    <t>90_2003_2</t>
-  </si>
-  <si>
-    <t>90_2003_3</t>
-  </si>
-  <si>
-    <t>90_2003_4</t>
-  </si>
-  <si>
-    <t>90_2003_5</t>
-  </si>
-  <si>
-    <t>20_2001_1|80_2002_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_2001_1|80_2002_5</t>
+    <t>attr#id_val</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001_1|2002_1</t>
+  </si>
+  <si>
+    <t>2001_2|2002_2</t>
+  </si>
+  <si>
+    <t>2001_1|2002_4</t>
+  </si>
+  <si>
+    <t>2001_1|2002_5</t>
+  </si>
+  <si>
+    <t>2003_1</t>
+  </si>
+  <si>
+    <t>2003_2</t>
+  </si>
+  <si>
+    <t>2003_3</t>
+  </si>
+  <si>
+    <t>2003_4</t>
+  </si>
+  <si>
+    <t>2003_5</t>
+  </si>
+  <si>
+    <t>aura#id_lv</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1507,9 +1505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,10 +1535,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>35</v>
@@ -1575,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
@@ -1604,22 +1602,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
@@ -1628,10 +1626,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>33</v>
@@ -1651,7 +1649,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
@@ -1704,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>26</v>
@@ -1742,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>27</v>
@@ -1780,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>28</v>
@@ -1818,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -1856,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>30</v>
@@ -1894,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>36</v>
@@ -1929,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>36</v>
@@ -1964,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>36</v>
@@ -1999,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>36</v>
@@ -2034,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>36</v>
@@ -2069,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>36</v>
@@ -2104,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>
@@ -2139,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>36</v>
@@ -2174,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>36</v>
@@ -2209,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>36</v>
@@ -2244,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>36</v>
@@ -2279,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>36</v>
@@ -2314,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>36</v>
@@ -2349,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>36</v>
@@ -2384,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>36</v>
@@ -2419,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>36</v>
@@ -2454,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>36</v>
@@ -2468,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2489,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>36</v>
@@ -2503,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2524,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>36</v>
@@ -2538,7 +2536,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2559,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>36</v>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -1063,10 +1063,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>attr#id_val</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1099,6 +1095,10 @@
   </si>
   <si>
     <t>aura#id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1505,9 +1505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -1626,10 +1626,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>33</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>26</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>27</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>28</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>30</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>36</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>36</v>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>36</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>36</v>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>36</v>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>36</v>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>
@@ -2137,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>36</v>
@@ -2172,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>36</v>
@@ -2207,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>36</v>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>36</v>
@@ -2277,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>36</v>
@@ -2312,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>36</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>36</v>
@@ -2382,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>36</v>
@@ -2417,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>36</v>
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>36</v>
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>36</v>
@@ -2522,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>36</v>
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>36</v>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -19,20 +19,30 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：自己
+</t>
         </r>
         <r>
           <rPr>
@@ -41,47 +51,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：自己
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">乙方全体
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">2:  </t>
         </r>
         <r>
@@ -92,27 +61,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">敌人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>敌方全体</t>
+          <t>敌人</t>
         </r>
       </text>
     </comment>
@@ -120,25 +69,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-执行</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行</t>
         </r>
         <r>
           <rPr>
@@ -157,7 +94,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">的间隔时间
+          <t xml:space="preserve">的间隔毫秒
 </t>
         </r>
         <r>
@@ -201,7 +138,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -247,7 +184,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -287,13 +224,23 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击目标
+</t>
         </r>
         <r>
           <rPr>
@@ -302,47 +249,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>无</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>2:</t>
         </r>
         <r>
@@ -353,7 +259,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>加光环</t>
+          <t>给目标加光环</t>
         </r>
       </text>
     </comment>
@@ -368,7 +274,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -379,8 +285,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能影响范围
-</t>
+为</t>
         </r>
         <r>
           <rPr>
@@ -389,76 +294,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>仅</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>object
-1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">格
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：全体</t>
+          <t>object</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加光环</t>
         </r>
       </text>
     </comment>
@@ -466,58 +312,42 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-为</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>object</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>加光环</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御</t>
         </r>
         <r>
           <rPr>
@@ -526,19 +356,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击
-</t>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>此处不用</t>
         </r>
         <r>
           <rPr>
@@ -547,17 +375,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>防御</t>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
@@ -566,17 +395,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>此处不用</t>
+          <t>3:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暴击
+</t>
         </r>
         <r>
           <rPr>
@@ -585,221 +415,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>手速</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>此处不用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4:HP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>当前</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>此处不用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5:HP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>上限</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>此处不用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>6:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">暴击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>7:</t>
+          <t>4:</t>
         </r>
         <r>
           <rPr>
@@ -810,25 +426,6 @@
             <charset val="134"/>
           </rPr>
           <t>暴伤</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1 客户端专用
-2 服务器专用
-3 通用
-0 策划维护用
-</t>
         </r>
       </text>
     </comment>
@@ -837,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -962,14 +559,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>光环</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1018,10 +607,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>这里是描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>间隔时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1038,15 +623,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>技能6</t>
-  </si>
-  <si>
-    <t>技能7</t>
-  </si>
-  <si>
-    <t>技能8</t>
-  </si>
-  <si>
     <t>技能时长</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1099,6 +675,10 @@
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个技能很叼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,13 +736,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -1201,7 +774,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1217,7 +790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1503,11 +1076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,12 +1089,12 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="23.75" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1535,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>19</v>
@@ -1553,13 +1126,10 @@
         <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
@@ -1591,51 +1161,45 @@
         <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
@@ -1661,19 +1225,16 @@
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1684,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
       </c>
       <c r="F5">
         <v>2000</v>
@@ -1698,20 +1259,14 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1722,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
       </c>
       <c r="F6">
         <v>2000</v>
@@ -1736,20 +1291,14 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -1760,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
       </c>
       <c r="F7">
         <v>2000</v>
@@ -1774,20 +1323,14 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>51</v>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1798,10 +1341,10 @@
         <v>10</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
       </c>
       <c r="F8">
         <v>2000</v>
@@ -1812,20 +1355,14 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>51</v>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1836,10 +1373,10 @@
         <v>10</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
       </c>
       <c r="F9">
         <v>2000</v>
@@ -1850,20 +1387,14 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>52</v>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1874,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1888,17 +1419,14 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1002</v>
       </c>
@@ -1909,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1923,17 +1451,14 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1002</v>
       </c>
@@ -1944,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1958,17 +1483,14 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1002</v>
       </c>
@@ -1979,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1993,17 +1515,14 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -2014,7 +1533,7 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2028,17 +1547,14 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2049,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -2063,17 +1579,17 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>2</v>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1003</v>
       </c>
@@ -2084,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -2098,17 +1614,17 @@
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>2</v>
+      <c r="I16" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1003</v>
       </c>
@@ -2119,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -2133,17 +1649,17 @@
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>2</v>
+      <c r="I17" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1003</v>
       </c>
@@ -2154,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2168,17 +1684,17 @@
       <c r="H18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>2</v>
+      <c r="I18" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -2189,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -2203,17 +1719,17 @@
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>2</v>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -2224,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -2236,19 +1752,16 @@
         <v>6000</v>
       </c>
       <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -2259,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1000</v>
@@ -2271,19 +1784,16 @@
         <v>6000</v>
       </c>
       <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1004</v>
       </c>
@@ -2294,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1000</v>
@@ -2306,19 +1816,16 @@
         <v>6000</v>
       </c>
       <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1004</v>
       </c>
@@ -2329,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2341,19 +1848,16 @@
         <v>6000</v>
       </c>
       <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1004</v>
       </c>
@@ -2364,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2376,19 +1880,16 @@
         <v>6000</v>
       </c>
       <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2399,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2411,19 +1912,16 @@
         <v>6000</v>
       </c>
       <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1005</v>
       </c>
@@ -2434,7 +1932,7 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2446,19 +1944,16 @@
         <v>6000</v>
       </c>
       <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1005</v>
       </c>
@@ -2466,10 +1961,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2483,17 +1978,14 @@
       <c r="H27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1005</v>
       </c>
@@ -2501,10 +1993,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2518,17 +2010,14 @@
       <c r="H28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1005</v>
       </c>
@@ -2536,10 +2025,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2553,14 +2042,11 @@
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>36</v>
+      <c r="I29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,68 +62,6 @@
             <charset val="134"/>
           </rPr>
           <t>敌人</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的间隔毫秒
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：表示不执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
         </r>
       </text>
     </comment>
@@ -131,14 +69,22 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
         <r>
           <rPr>
@@ -148,8 +94,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-单位</t>
+          <t xml:space="preserve">的间隔毫秒
+</t>
         </r>
         <r>
           <rPr>
@@ -158,7 +104,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </r>
         <r>
           <rPr>
@@ -168,8 +114,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：毫秒
-</t>
+          <t>：表示不执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
       </text>
     </comment>
@@ -215,7 +169,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：毫秒
-应包括技能时长
 </t>
         </r>
       </text>
@@ -224,32 +177,14 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:</t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">攻击目标
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -259,7 +194,29 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>给目标加光环</t>
+          <t xml:space="preserve">
+单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
+应包括技能时长
+</t>
         </r>
       </text>
     </comment>
@@ -267,14 +224,32 @@
       <text>
         <r>
           <rPr>
-            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t xml:space="preserve">攻击目标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2:</t>
         </r>
         <r>
           <rPr>
@@ -284,31 +259,56 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>object</t>
-        </r>
-        <r>
-          <rPr>
+          <t>给目标加光环</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>object</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>加光环</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -679,6 +679,26 @@
   </si>
   <si>
     <t>这个技能很叼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1076,25 +1096,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
-    <col min="10" max="10" width="23.75" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1104,32 +1125,35 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1140,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1161,10 +1185,13 @@
         <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1175,31 +1202,34 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1209,14 +1239,14 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>18</v>
@@ -1225,16 +1255,19 @@
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1244,29 +1277,32 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4000</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1276,29 +1312,32 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4000</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -1308,29 +1347,32 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4000</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1340,29 +1382,32 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4000</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -1372,29 +1417,32 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4000</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1404,29 +1452,32 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>2</v>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6000</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1002</v>
       </c>
@@ -1436,29 +1487,32 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>2</v>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6000</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1002</v>
       </c>
@@ -1468,29 +1522,32 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>2</v>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6000</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1002</v>
       </c>
@@ -1500,29 +1557,32 @@
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>2</v>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6000</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -1532,29 +1592,32 @@
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>2</v>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6000</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1564,32 +1627,35 @@
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>1000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6000</v>
       </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1003</v>
       </c>
@@ -1599,32 +1665,35 @@
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>2</v>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>1000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6000</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1003</v>
       </c>
@@ -1634,32 +1703,35 @@
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>2</v>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>1000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>6000</v>
       </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1003</v>
       </c>
@@ -1669,32 +1741,35 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>2</v>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>1000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6000</v>
       </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -1704,32 +1779,35 @@
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19">
-        <v>2</v>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>1000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6000</v>
       </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -1739,29 +1817,32 @@
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
-        <v>2</v>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>1000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6000</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -1771,29 +1852,32 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>2</v>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>1000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>6000</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1004</v>
       </c>
@@ -1803,29 +1887,32 @@
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>2</v>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>1000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>6000</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1004</v>
       </c>
@@ -1835,29 +1922,32 @@
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D23">
-        <v>2</v>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>1000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>6000</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1004</v>
       </c>
@@ -1867,29 +1957,32 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24">
-        <v>2</v>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>1000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6000</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -1899,29 +1992,32 @@
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25">
-        <v>2</v>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>1000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6000</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1005</v>
       </c>
@@ -1931,29 +2027,32 @@
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26">
-        <v>2</v>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>1000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>6000</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1005</v>
       </c>
@@ -1963,29 +2062,32 @@
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D27">
-        <v>2</v>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>1000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6000</v>
       </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1005</v>
       </c>
@@ -1995,29 +2097,32 @@
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28">
-        <v>2</v>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>1000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6000</v>
       </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1005</v>
       </c>
@@ -2027,25 +2132,28 @@
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D29">
-        <v>2</v>
+      <c r="D29" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>1000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6000</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>54</v>
       </c>
     </row>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -19,30 +19,20 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：自己
-</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -51,17 +41,38 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">2:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>敌人</t>
+          <t xml:space="preserve">
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：表示可释放技能
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：被动技能</t>
         </r>
       </text>
     </comment>
@@ -71,30 +82,20 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>update</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的间隔毫秒
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：自己
 </t>
         </r>
         <r>
@@ -104,26 +105,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：表示不执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
+          <t xml:space="preserve">2:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>敌人</t>
         </r>
       </text>
     </comment>
@@ -138,7 +130,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -177,25 +169,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行</t>
         </r>
         <r>
           <rPr>
@@ -204,19 +184,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
-应包括技能时长
+          <t>update</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">的间隔毫秒
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：表示不执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
       </text>
     </comment>
@@ -224,42 +231,46 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击目标
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
+应包括技能时长
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给目标加光环</t>
         </r>
       </text>
     </comment>
@@ -267,48 +278,91 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-为</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>object</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>加光环</t>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击目标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给目标加光环</t>
         </r>
       </text>
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>object</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加光环</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +488,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -502,26 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能一</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能二</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>释放对象</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -643,33 +677,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2001_1|2002_1</t>
-  </si>
-  <si>
-    <t>2001_2|2002_2</t>
-  </si>
-  <si>
-    <t>2001_1|2002_4</t>
-  </si>
-  <si>
-    <t>2001_1|2002_5</t>
-  </si>
-  <si>
-    <t>2003_1</t>
-  </si>
-  <si>
-    <t>2003_2</t>
-  </si>
-  <si>
-    <t>2003_3</t>
-  </si>
-  <si>
-    <t>2003_4</t>
-  </si>
-  <si>
-    <t>2003_5</t>
-  </si>
-  <si>
     <t>aura#id_lv</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -678,10 +685,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>这个技能很叼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>l</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -700,13 +703,108 @@
   <si>
     <t>skill2</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被动技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸天地精华，淬炼自身</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄之刃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人斩</t>
+  </si>
+  <si>
+    <t>蛇蝎心</t>
+  </si>
+  <si>
+    <t>貂蝉之吻</t>
+  </si>
+  <si>
+    <t>最普通的技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标造成大量伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害大量伤害并增加掉防光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加吸血光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使圣光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004_3</t>
+  </si>
+  <si>
+    <t>2004_4</t>
+  </si>
+  <si>
+    <t>2004_5</t>
+  </si>
+  <si>
+    <t>2005_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005_3</t>
+  </si>
+  <si>
+    <t>2005_4</t>
+  </si>
+  <si>
+    <t>2005_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,6 +860,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -794,7 +899,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -810,7 +915,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1096,26 +1201,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="23.75" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="23.375" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1126,34 +1233,37 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1164,72 +1274,78 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1240,921 +1356,833 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>2000</v>
       </c>
-      <c r="H5">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3000</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
         <v>4000</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1001</v>
-      </c>
-      <c r="B6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1002</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2000</v>
-      </c>
-      <c r="H6">
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
         <v>4000</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1001</v>
-      </c>
-      <c r="B7">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1002</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2000</v>
-      </c>
-      <c r="H7">
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3000</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
         <v>4000</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1001</v>
-      </c>
-      <c r="B8">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1002</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>2000</v>
-      </c>
-      <c r="H8">
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3000</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
         <v>4000</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>1001</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2000</v>
-      </c>
-      <c r="H9">
-        <v>4000</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
       <c r="G10">
         <v>3000</v>
       </c>
       <c r="H10">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1003</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1002</v>
-      </c>
-      <c r="B11">
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
       <c r="G11">
         <v>3000</v>
       </c>
       <c r="H11">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>48</v>
+        <v>5000</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1003</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>1002</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
       </c>
       <c r="G12">
         <v>3000</v>
       </c>
       <c r="H12">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>49</v>
+        <v>5000</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1003</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>1002</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
       </c>
       <c r="G13">
         <v>3000</v>
       </c>
       <c r="H13">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
+        <v>5000</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1003</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>1002</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
       </c>
       <c r="G14">
         <v>3000</v>
       </c>
       <c r="H14">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>51</v>
+        <v>5000</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1000</v>
       </c>
       <c r="G15">
         <v>3000</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5000</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1004</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>6000</v>
       </c>
-      <c r="I15">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1004</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>1003</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>6000</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1000</v>
-      </c>
-      <c r="G16">
-        <v>3000</v>
-      </c>
-      <c r="H16">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1004</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>6000</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>1003</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1000</v>
-      </c>
-      <c r="G17">
-        <v>3000</v>
-      </c>
-      <c r="H17">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1004</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>6000</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>1003</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1000</v>
-      </c>
-      <c r="G18">
-        <v>3000</v>
-      </c>
-      <c r="H18">
-        <v>6000</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>1003</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1000</v>
-      </c>
-      <c r="G19">
-        <v>3000</v>
-      </c>
-      <c r="H19">
-        <v>6000</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>6000</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E20">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1005</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1005</v>
+      </c>
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>1000</v>
-      </c>
-      <c r="G20">
-        <v>3000</v>
-      </c>
-      <c r="H20">
-        <v>6000</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>1004</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1000</v>
-      </c>
-      <c r="G21">
-        <v>3000</v>
-      </c>
-      <c r="H21">
-        <v>6000</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>1004</v>
-      </c>
-      <c r="B22">
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1005</v>
+      </c>
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1000</v>
-      </c>
-      <c r="G22">
-        <v>3000</v>
-      </c>
-      <c r="H22">
-        <v>6000</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>1004</v>
-      </c>
-      <c r="B23">
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1005</v>
+      </c>
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1000</v>
-      </c>
-      <c r="G23">
-        <v>3000</v>
-      </c>
-      <c r="H23">
-        <v>6000</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>1004</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>1005</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>1000</v>
-      </c>
-      <c r="G26">
-        <v>3000</v>
-      </c>
-      <c r="H26">
-        <v>6000</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>1005</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>1000</v>
-      </c>
-      <c r="G27">
-        <v>3000</v>
-      </c>
-      <c r="H27">
-        <v>6000</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>1005</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>1000</v>
-      </c>
-      <c r="G28">
-        <v>3000</v>
-      </c>
-      <c r="H28">
-        <v>6000</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>1005</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>1000</v>
-      </c>
-      <c r="G29">
-        <v>3000</v>
-      </c>
-      <c r="H29">
-        <v>6000</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -123,45 +123,42 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击目标
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给目标加光环</t>
         </r>
       </text>
     </comment>
@@ -169,13 +166,25 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>执行</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位</t>
         </r>
         <r>
           <rPr>
@@ -184,46 +193,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>update</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的间隔毫秒
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：表示不执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
         </r>
       </text>
     </comment>
@@ -231,25 +212,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行</t>
         </r>
         <r>
           <rPr>
@@ -258,19 +227,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
-应包括技能时长
+          <t>update</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">的间隔毫秒
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：表示不执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
       </text>
     </comment>
@@ -278,42 +274,46 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击目标
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
+应包括技能时长
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给目标加光环</t>
         </r>
       </text>
     </comment>
@@ -589,10 +589,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>光环</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -693,10 +689,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>module</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -798,6 +790,14 @@
   </si>
   <si>
     <t>2005_5</t>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1205,7 +1205,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,9 +1214,9 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="23.375" customWidth="1"/>
     <col min="12" max="12" width="23.75" customWidth="1"/>
     <col min="13" max="13" width="27.5" customWidth="1"/>
@@ -1233,34 +1233,34 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -1274,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1286,10 +1286,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
@@ -1301,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -1309,40 +1309,40 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -1356,10 +1356,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
@@ -1368,22 +1368,22 @@
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -1394,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1406,23 +1406,23 @@
         <v>2</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>1000</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>2000</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1433,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1445,20 +1445,20 @@
         <v>2</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>3000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4000</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -1469,10 +1469,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1481,20 +1481,20 @@
         <v>2</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>3000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4000</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1517,20 +1517,20 @@
         <v>2</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>3000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4000</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1541,10 +1541,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1553,20 +1553,20 @@
         <v>2</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>3000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4000</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -1577,10 +1577,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1589,20 +1589,20 @@
         <v>2</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>3000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4000</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1613,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1625,25 +1625,25 @@
         <v>2</v>
       </c>
       <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <v>3000</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>5000</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1654,10 +1654,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1666,25 +1666,25 @@
         <v>2</v>
       </c>
       <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>3000</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>5000</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1695,10 +1695,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1707,25 +1707,25 @@
         <v>2</v>
       </c>
       <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>3000</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>5000</v>
       </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1736,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1748,25 +1748,25 @@
         <v>2</v>
       </c>
       <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>3000</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>5000</v>
       </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1777,10 +1777,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1789,25 +1789,25 @@
         <v>2</v>
       </c>
       <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <v>3000</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>5000</v>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1818,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1830,22 +1830,22 @@
         <v>1</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>2000</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>6000</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1856,10 +1856,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>1</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>2000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>6000</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1894,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>2000</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>6000</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -1932,10 +1932,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1944,22 +1944,22 @@
         <v>1</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>2000</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>6000</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -1970,10 +1970,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1982,22 +1982,22 @@
         <v>1</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>2000</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>6000</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
@@ -2031,10 +2031,10 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
@@ -2068,10 +2068,10 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -2082,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
@@ -2105,10 +2105,10 @@
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -2119,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
@@ -2142,10 +2142,10 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -2156,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
@@ -2179,10 +2179,10 @@
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0">
@@ -32,7 +32,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -123,42 +123,45 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击目标
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给目标加光环</t>
         </r>
       </text>
     </comment>
@@ -166,25 +169,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行</t>
         </r>
         <r>
           <rPr>
@@ -193,18 +184,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
+          <t>update</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">的间隔毫秒
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：表示不执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
       </text>
     </comment>
@@ -212,13 +231,25 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>执行</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位</t>
         </r>
         <r>
           <rPr>
@@ -227,46 +258,19 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>update</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的间隔毫秒
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
+应包括技能时长
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：表示不执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
         </r>
       </text>
     </comment>
@@ -281,7 +285,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -292,7 +296,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-单位</t>
+为</t>
         </r>
         <r>
           <rPr>
@@ -301,19 +305,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
-应包括技能时长
-</t>
+          <t>object</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加光环</t>
         </r>
       </text>
     </comment>
@@ -321,49 +323,23 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-为</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>object</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>加光环</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
+          <t>1 HP       (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不适用</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -371,7 +347,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1:</t>
+          <t xml:space="preserve">)
+2 </t>
         </r>
         <r>
           <rPr>
@@ -391,7 +368,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2:</t>
+          <t xml:space="preserve">3 </t>
         </r>
         <r>
           <rPr>
@@ -410,17 +387,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>此处不用</t>
+          <t xml:space="preserve">    (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不适用</t>
         </r>
         <r>
           <rPr>
@@ -449,7 +426,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3:</t>
+          <t xml:space="preserve">4 </t>
         </r>
         <r>
           <rPr>
@@ -469,17 +446,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴伤</t>
+          <t xml:space="preserve">5 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击伤害</t>
         </r>
       </text>
     </comment>
@@ -488,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -585,10 +562,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>动作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>光环</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -597,26 +570,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>攻击时附加属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_100|6_20|7_20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_100|6_20|7_21</t>
-  </si>
-  <si>
-    <t>1_100|6_20|7_22</t>
-  </si>
-  <si>
-    <t>1_100|6_20|7_23</t>
-  </si>
-  <si>
-    <t>1_100|6_20|7_24</t>
-  </si>
-  <si>
     <t>技能描述</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -792,12 +745,47 @@
     <t>2005_5</t>
   </si>
   <si>
-    <t>action</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_100|4_10|5_20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_110|4_15|5_25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_120|4_20|5_30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_130|4_25|5_35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_140|4_30|5_40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_10|2_20|3_30|4_4|5_5</t>
+  </si>
+  <si>
+    <t>1_20|2_22|3_40|4_6|5_10</t>
+  </si>
+  <si>
+    <t>1_30|2_24|3_50|4_8|5_15</t>
+  </si>
+  <si>
+    <t>1_40|2_25|3_60|4_10|5_20</t>
+  </si>
+  <si>
+    <t>1_50|2_26|3_70|4_12|5_25</t>
   </si>
 </sst>
 </file>
@@ -899,7 +887,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -915,7 +903,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1201,11 +1189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,15 +1202,15 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
-    <col min="12" max="12" width="23.75" customWidth="1"/>
-    <col min="13" max="13" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1233,37 +1221,34 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1274,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1286,10 +1271,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
@@ -1298,54 +1283,48 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1356,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
@@ -1368,25 +1347,22 @@
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1394,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1406,26 +1382,23 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1000</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2000</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="L5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1433,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1445,23 +1418,20 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="H6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <v>1000</v>
-      </c>
-      <c r="J6">
-        <v>4000</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1469,10 +1439,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1481,23 +1451,20 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="H7">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="J7">
-        <v>4000</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1002</v>
       </c>
@@ -1505,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1517,23 +1484,20 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="H8">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I8">
-        <v>1000</v>
-      </c>
-      <c r="J8">
-        <v>4000</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1541,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1553,23 +1517,20 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="H9">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="J9">
-        <v>4000</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1577,10 +1538,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1589,23 +1550,20 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="H10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I10">
-        <v>1000</v>
-      </c>
-      <c r="J10">
-        <v>4000</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1613,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1625,28 +1583,25 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H11">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1003</v>
       </c>
@@ -1654,10 +1609,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1666,28 +1621,25 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H12">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -1695,10 +1647,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1707,28 +1659,25 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H13">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1003</v>
       </c>
@@ -1736,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1748,28 +1697,25 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H14">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1777,10 +1723,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1789,28 +1735,25 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -1818,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1830,25 +1773,22 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H16">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>6000</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1004</v>
       </c>
@@ -1856,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1868,25 +1808,22 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>6000</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1004</v>
       </c>
@@ -1894,10 +1831,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1906,25 +1843,22 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>6000</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -1932,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1944,25 +1878,22 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>6000</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -1970,10 +1901,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1982,25 +1913,22 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H20">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>6000</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -2008,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
@@ -2026,18 +1954,15 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1005</v>
       </c>
@@ -2045,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
@@ -2063,18 +1988,15 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1005</v>
       </c>
@@ -2082,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
@@ -2100,18 +2022,15 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -2119,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
@@ -2137,18 +2056,15 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="L24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2156,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
@@ -2174,15 +2090,12 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="L25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -19,10 +19,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -73,49 +73,6 @@
             <charset val="134"/>
           </rPr>
           <t>：被动技能</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：自己
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>敌人</t>
         </r>
       </text>
     </comment>
@@ -123,14 +80,32 @@
       <text>
         <r>
           <rPr>
-            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t xml:space="preserve">：自己
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2:  </t>
         </r>
         <r>
           <rPr>
@@ -140,28 +115,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-单位</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
-</t>
+          <t>敌人</t>
         </r>
       </text>
     </comment>
@@ -169,22 +123,14 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -194,8 +140,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">的间隔毫秒
-</t>
+          <t xml:space="preserve">
+单位</t>
         </r>
         <r>
           <rPr>
@@ -204,7 +150,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -214,16 +160,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>：表示不执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
+          <t xml:space="preserve">：毫秒
+</t>
         </r>
       </text>
     </comment>
@@ -231,14 +169,22 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
         <r>
           <rPr>
@@ -248,8 +194,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-单位</t>
+          <t xml:space="preserve">的间隔毫秒
+</t>
         </r>
         <r>
           <rPr>
@@ -258,7 +204,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </r>
         <r>
           <rPr>
@@ -268,9 +214,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：毫秒
-应包括技能时长
-</t>
+          <t>：表示不执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
         </r>
       </text>
     </comment>
@@ -285,7 +238,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -296,7 +249,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-为</t>
+单位</t>
         </r>
         <r>
           <rPr>
@@ -305,7 +258,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>object</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -315,11 +268,58 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>加光环</t>
+          <t xml:space="preserve">：毫秒
+应包括技能时长
+</t>
         </r>
       </text>
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>object</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>加光环</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -786,6 +786,37 @@
   </si>
   <si>
     <t>1_50|2_26|3_70|4_12|5_25</t>
+  </si>
+  <si>
+    <t>ICON</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/skill/skill_1001.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1002.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1003.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1004.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1005.png</t>
   </si>
 </sst>
 </file>
@@ -887,7 +918,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -903,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1189,11 +1220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6:J10"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1201,16 +1232,17 @@
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1224,31 +1256,34 @@
         <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1262,19 +1297,19 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
@@ -1283,10 +1318,13 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1300,31 +1338,34 @@
         <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1338,31 +1379,34 @@
         <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1375,30 +1419,33 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1000</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1000</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1411,27 +1458,30 @@
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>3000</v>
-      </c>
       <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6">
         <v>1000</v>
       </c>
-      <c r="I6">
-        <v>3000</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="J6">
+        <v>3000</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1444,27 +1494,30 @@
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>3000</v>
-      </c>
       <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
         <v>1000</v>
       </c>
-      <c r="I7">
-        <v>3000</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1002</v>
       </c>
@@ -1477,27 +1530,30 @@
       <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>3000</v>
-      </c>
       <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8">
         <v>1000</v>
       </c>
-      <c r="I8">
-        <v>3000</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="J8">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1510,27 +1566,30 @@
       <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
       <c r="H9">
+        <v>3000</v>
+      </c>
+      <c r="I9">
         <v>1000</v>
       </c>
-      <c r="I9">
-        <v>3000</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="J9">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1543,27 +1602,30 @@
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>3000</v>
-      </c>
       <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10">
         <v>1000</v>
       </c>
-      <c r="I10">
-        <v>3000</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="J10">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="M10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1576,32 +1638,35 @@
       <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>3000</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I11">
-        <v>3000</v>
-      </c>
-      <c r="J11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3000</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1003</v>
       </c>
@@ -1614,32 +1679,35 @@
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>3000</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I12">
-        <v>3000</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -1652,32 +1720,35 @@
       <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>3000</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I13">
-        <v>3000</v>
-      </c>
-      <c r="J13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3000</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1003</v>
       </c>
@@ -1690,32 +1761,35 @@
       <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>3000</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I14">
-        <v>3000</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1728,32 +1802,35 @@
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>3000</v>
-      </c>
       <c r="H15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I15">
-        <v>3000</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -1766,29 +1843,32 @@
       <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2000</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
-        <v>3000</v>
-      </c>
-      <c r="J16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3000</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1004</v>
       </c>
@@ -1801,29 +1881,32 @@
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
-        <v>3000</v>
-      </c>
-      <c r="J17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1004</v>
       </c>
@@ -1836,29 +1919,32 @@
       <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2000</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
-        <v>3000</v>
-      </c>
-      <c r="J18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -1871,29 +1957,32 @@
       <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2000</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3000</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -1906,29 +1995,32 @@
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2000</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
-        <v>3000</v>
-      </c>
-      <c r="J20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3000</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -1939,12 +2031,12 @@
         <v>51</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2">
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -1954,15 +2046,18 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1005</v>
       </c>
@@ -1973,12 +2068,12 @@
         <v>51</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2">
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -1988,15 +2083,18 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1005</v>
       </c>
@@ -2007,12 +2105,12 @@
         <v>51</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2">
+      <c r="E23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -2022,15 +2120,18 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -2041,12 +2142,12 @@
         <v>51</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -2056,15 +2157,18 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2075,12 +2179,12 @@
         <v>51</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -2090,11 +2194,14 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>42</v>
       </c>
     </row>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillProto!$A$1:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -29,8 +29,9 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -38,41 +39,33 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：表示可释放技能
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：被动技能</t>
+单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
+技能释放时间
+</t>
         </r>
       </text>
     </comment>
@@ -80,42 +73,83 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：自己
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>敌人</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：毫秒
+准备之后开始计算，准备时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>效果时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能总时间</t>
         </r>
       </text>
     </comment>
@@ -123,45 +157,91 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
-</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">的间隔毫秒
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：表示不执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">update
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在效果时间之内两次</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>update</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>之间的间隔</t>
         </r>
       </text>
     </comment>
@@ -169,61 +249,46 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的间隔毫秒
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：表示不执行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>update</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：毫秒
+技能结束到下一次可释放的时间
+</t>
         </r>
       </text>
     </comment>
@@ -234,9 +299,8 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -244,33 +308,61 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-单位</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：毫秒
-应包括技能时长
-</t>
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：被动技能
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：对敌方伤害
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对已方祝福</t>
         </r>
       </text>
     </comment>
@@ -296,30 +388,1135 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>object</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>加光环</t>
+我方：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0
+ 1
+ 2
+ 3
+ 4
+ 5 // </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">以上为绝对位置
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">自己
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 7 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自己所在排行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包括自己</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+ 8 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自己所在列</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包括自己</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+ 9 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自己周围</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包括自己</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+ 10 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自己周围</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不包括自己</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+ 11 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">已方第一排
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 12 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">乙方第二排行
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 13 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">乙方全体
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 14 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">已方第一列
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 15 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">已方第二列
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 16 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">已方第三列
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 17 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>乙方</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">最少单位
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 18 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>乙方</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">百分比最少单位
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 101 // </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>定向寻找</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，比如张飞、张苞</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>具体在另一张表中依次列表所有可能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">敌方：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 200 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对面的第一个单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>简称目标</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+ 201 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对面的第二个单位
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 202 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对面的所有单位
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 203 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对方第一排
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 204 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对方第二排
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 205 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对方第一列
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 206 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对方第二列
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 207 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对方第三列
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 208 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对方全体
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 209 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">目标所在排
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 210 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">目标所在列
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 211 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">目标周边
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 212 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>敌方</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">最少
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 213 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>敌方</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">百分比最少
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 301 //</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>定向寻找</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，（与</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>101</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>类似，寻找我的仇人，比如吕蒙喜欢找关羽杀）</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+主动技能：为已方加
+被动技能：为敌方加
+概率、ID、LV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 HP
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">速度
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">防御
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暴击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暴伤
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7  HP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">速度加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">9  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">防御加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">11 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暴击加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">12 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴伤加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -533,39 +1730,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>释放对象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>umber</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>map</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -606,30 +1778,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>技能时长</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>cd_t</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>target</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr#id_val</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aura#id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -658,18 +1810,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否被动技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>passive</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -711,40 +1855,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2004_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004_3</t>
-  </si>
-  <si>
-    <t>2004_4</t>
-  </si>
-  <si>
-    <t>2004_5</t>
-  </si>
-  <si>
-    <t>2005_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005_3</t>
-  </si>
-  <si>
-    <t>2005_4</t>
-  </si>
-  <si>
-    <t>2005_5</t>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -769,10 +1879,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>附加属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1_10|2_20|3_30|4_4|5_5</t>
   </si>
   <si>
@@ -817,6 +1923,124 @@
   </si>
   <si>
     <t>icon/skill/skill_1005.png</t>
+  </si>
+  <si>
+    <t>第一目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_major</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_minor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_passive#id_val</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_major#id_val</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_minor#id_val</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性(第一目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性(第二目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环(第一目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环(第二目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性(作为被动技能)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura_major#prob_id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura_minor#prob_id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80_2005_1</t>
+  </si>
+  <si>
+    <t>80_2005_2</t>
+  </si>
+  <si>
+    <t>80_2005_3</t>
+  </si>
+  <si>
+    <t>80_2005_4</t>
+  </si>
+  <si>
+    <t>80_2005_5</t>
+  </si>
+  <si>
+    <t>80_2004_1</t>
+  </si>
+  <si>
+    <t>80_2004_2</t>
+  </si>
+  <si>
+    <t>80_2004_3</t>
+  </si>
+  <si>
+    <t>80_2004_4</t>
+  </si>
+  <si>
+    <t>80_2004_5</t>
   </si>
 </sst>
 </file>
@@ -907,7 +2131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -916,6 +2140,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,11 +2447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1233,16 +2460,17 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5" customWidth="1"/>
+    <col min="6" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="25.75" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.125" customWidth="1"/>
+    <col min="18" max="18" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1253,37 +2481,52 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
+      <c r="Q1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1294,78 +2537,108 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1376,37 +2649,52 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>19</v>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1414,38 +2702,47 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>47</v>
+      <c r="P5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1453,35 +2750,38 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="2">
+        <v>58</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
         <v>3000</v>
       </c>
-      <c r="I6">
-        <v>1000</v>
-      </c>
-      <c r="J6">
-        <v>3000</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>48</v>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1489,35 +2789,38 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="2">
+        <v>58</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
         <v>3000</v>
       </c>
-      <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="J7">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>48</v>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1002</v>
       </c>
@@ -1525,35 +2828,38 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="2">
+        <v>58</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
         <v>3000</v>
       </c>
-      <c r="I8">
-        <v>1000</v>
-      </c>
-      <c r="J8">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>48</v>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1561,35 +2867,38 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="2">
+        <v>58</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
         <v>3000</v>
       </c>
-      <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="J9">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>48</v>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1597,35 +2906,38 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2">
+        <v>58</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
         <v>3000</v>
       </c>
-      <c r="I10">
-        <v>1000</v>
-      </c>
-      <c r="J10">
-        <v>3000</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>48</v>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1633,40 +2945,51 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="2">
+        <v>59</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>3000</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>3000</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1003</v>
       </c>
@@ -1674,40 +2997,51 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2">
+        <v>59</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>3000</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>3000</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -1715,40 +3049,51 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>3000</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>3000</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>49</v>
+      <c r="P13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1003</v>
       </c>
@@ -1756,40 +3101,51 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="2">
+        <v>59</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>3000</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>3000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1797,40 +3153,51 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="2">
+        <v>59</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>3000</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>3000</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="3" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -1838,37 +3205,42 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="2">
+        <v>60</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H16">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>3000</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="3" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1004</v>
       </c>
@@ -1876,37 +3248,42 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="2">
+        <v>60</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
         <v>3000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1004</v>
       </c>
@@ -1914,37 +3291,42 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2">
+        <v>60</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
         <v>3000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="3" t="s">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -1952,37 +3334,42 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="2">
+        <v>60</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
         <v>3000</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="3" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -1990,37 +3377,42 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="2">
+        <v>60</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H20">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
         <v>3000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="3" t="s">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -2028,36 +3420,45 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="2">
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>42</v>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1005</v>
       </c>
@@ -2065,36 +3466,45 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="2">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>42</v>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1005</v>
       </c>
@@ -2102,36 +3512,45 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="2">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>42</v>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -2139,36 +3558,45 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="2">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>42</v>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2176,33 +3604,42 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="2">
+        <v>61</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>42</v>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -1933,10 +1933,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>target_major</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2041,6 +2037,10 @@
   </si>
   <si>
     <t>80_2004_5</t>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2451,7 +2451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2487,10 +2487,10 @@
         <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>18</v>
@@ -2499,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
@@ -2508,19 +2508,19 @@
         <v>63</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>13</v>
@@ -2558,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1</v>
@@ -2599,10 +2599,10 @@
         <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
@@ -2611,28 +2611,28 @@
         <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>15</v>
@@ -2670,10 +2670,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>12</v>
@@ -2971,10 +2971,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>43</v>
@@ -3023,10 +3023,10 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>44</v>
@@ -3075,10 +3075,10 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>45</v>
@@ -3127,10 +3127,10 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>46</v>
@@ -3179,10 +3179,10 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>47</v>
@@ -3231,10 +3231,10 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>40</v>
@@ -3274,10 +3274,10 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>40</v>
@@ -3317,10 +3317,10 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>40</v>
@@ -3360,10 +3360,10 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>40</v>
@@ -3403,10 +3403,10 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>40</v>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -388,879 +388,39 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-我方：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 0
- 1
- 2
- 3
- 4
- 5 // </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">以上为绝对位置
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 6 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">自己
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 7 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自己所在排行</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>包括自己</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
- 8 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自己所在列</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>包括自己</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
- 9 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自己周围</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>包括自己</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
- 10 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自己周围</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不包括自己</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
- 11 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">已方第一排
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 12 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">乙方第二排行
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 13 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">乙方全体
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 14 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">已方第一列
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 15 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">已方第二列
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 16 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">已方第三列
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 17 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>乙方</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>HP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">最少单位
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 18 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>乙方</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>HP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">百分比最少单位
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 101 // </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>定向寻找</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，比如张飞、张苞</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>具体在另一张表中依次列表所有可能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">敌方：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 200 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>对面的第一个单位</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>简称目标</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
- 201 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对面的第二个单位
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 202 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对面的所有单位
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 203 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对方第一排
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 204 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对方第二排
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 205 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对方第一列
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 206 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对方第二列
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 207 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对方第三列
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 208 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对方全体
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 209 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">目标所在排
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 210 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">目标所在列
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 211 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">目标周边
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 212 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>敌方</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>HP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">最少
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 213 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>敌方</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>HP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">百分比最少
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 301 //</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>定向寻找</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，（与</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>101</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>类似，寻找我的仇人，比如吕蒙喜欢找关羽杀）</t>
+已方：
+ 1 ~ 6 // 绝对位置
+ 7 自己所在排行(包括自己)
+ 8 自己所在列(包括自己)
+ 9 自己周围(包括自己)
+ 10 自己周围(不包括自己)
+ 11 已方第一排
+ 12 已方第二排行
+ 13 已方全体
+ 14 已方第一列
+ 15 已方第二列
+ 16 已方第三列
+ 17 乙方HP最少单位
+ 18 乙方HP百分比最少单位
+ 19  自己
+ 101 // 定向寻找Id，比如张飞、张苞(具体在另一张表中依次列表所有可能)
+敌方：
+ 201 ~ 106 // 绝对位置
+ 207 对面的第一个单位(简称目标)
+ 208 对面的第二个单位
+ 209 对面的所有单位
+ 210 对方第一排
+ 211 对方第二排
+ 212 对方第一列
+ 213 对方第二列
+ 214 对方第三列
+ 215 对方全体
+ 216 目标所在排
+ 217 目标所在列
+ 218 目标周边
+ 219 敌方HP最少
+ 220 敌方HP百分比最少
+  //定向寻找Id，（与101类似，寻找我的仇人，比如吕蒙喜欢找关羽杀）</t>
         </r>
       </text>
     </comment>
@@ -1662,7 +822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="93">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2037,10 +1197,6 @@
   </si>
   <si>
     <t>80_2004_5</t>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2449,9 +1605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2558,10 +1714,10 @@
         <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1</v>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillProto!$A$1:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1605,9 +1605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1924,10 +1924,10 @@
         <v>1000</v>
       </c>
       <c r="I6">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1963,10 +1963,10 @@
         <v>1000</v>
       </c>
       <c r="I7">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2002,10 +2002,10 @@
         <v>1000</v>
       </c>
       <c r="I8">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2041,10 +2041,10 @@
         <v>1000</v>
       </c>
       <c r="I9">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2080,10 +2080,10 @@
         <v>1000</v>
       </c>
       <c r="I10">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2119,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2379,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2465,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2551,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillProto" sheetId="4" r:id="rId1"/>
+    <sheet name="Skill" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillProto!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Skill!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1607,7 +1607,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6:I20"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="4" r:id="rId1"/>
+    <sheet name="说明" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Skill!$A$1:$C$4</definedName>
@@ -378,6 +379,36 @@
             <charset val="134"/>
           </rPr>
           <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+生命周期与技能生命周期一致，用于方便持续时间段技能，比如月之女祭祀的流星雨，
+通常这类技能可被打断
+概率配置为100
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
         </r>
         <r>
           <rPr>
@@ -428,31 +459,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-主动技能：为已方加
-被动技能：为敌方加
-概率、ID、LV</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设置当前攻击量的百分量</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,138 +699,46 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设置当前攻击量的百分量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+概率要配置为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 HP       (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不适用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-2 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>防御</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不适用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">暴击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴击伤害</t>
+          <t>100</t>
         </r>
       </text>
     </comment>
@@ -822,7 +747,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -906,11 +831,47 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>itv_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>l</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
+    <t>动画名</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -918,11 +879,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔时间</t>
+    <t>skill2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -930,19 +895,87 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>itv_t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cd_t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
+    <t>吸天地精华，淬炼自身</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄之刃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美人斩</t>
+  </si>
+  <si>
+    <t>蛇蝎心</t>
+  </si>
+  <si>
+    <t>貂蝉之吻</t>
+  </si>
+  <si>
+    <t>最普通的技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标造成大量伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害大量伤害并增加掉防光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加吸血光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使圣光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_100|4_10|5_20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_110|4_15|5_25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_120|4_20|5_30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_130|4_25|5_35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_140|4_30|5_40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_10|2_20|3_30|4_4|5_5</t>
+  </si>
+  <si>
+    <t>1_20|2_22|3_40|4_6|5_10</t>
+  </si>
+  <si>
+    <t>1_30|2_24|3_50|4_8|5_15</t>
+  </si>
+  <si>
+    <t>1_40|2_25|3_60|4_10|5_20</t>
+  </si>
+  <si>
+    <t>1_50|2_26|3_70|4_12|5_25</t>
+  </si>
+  <si>
+    <t>ICON</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -950,7 +983,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>动画名</t>
+    <t>icon</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -958,245 +991,358 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>skill2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸天地精华，淬炼自身</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄之刃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>美人斩</t>
-  </si>
-  <si>
-    <t>蛇蝎心</t>
-  </si>
-  <si>
-    <t>貂蝉之吻</t>
-  </si>
-  <si>
-    <t>最普通的技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击目标造成大量伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害大量伤害并增加掉防光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加吸血光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使圣光</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_100|4_10|5_20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_110|4_15|5_25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_120|4_20|5_30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_130|4_25|5_35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_140|4_30|5_40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_10|2_20|3_30|4_4|5_5</t>
-  </si>
-  <si>
-    <t>1_20|2_22|3_40|4_6|5_10</t>
-  </si>
-  <si>
-    <t>1_30|2_24|3_50|4_8|5_15</t>
-  </si>
-  <si>
-    <t>1_40|2_25|3_60|4_10|5_20</t>
-  </si>
-  <si>
-    <t>1_50|2_26|3_70|4_12|5_25</t>
-  </si>
-  <si>
-    <t>ICON</t>
+    <t>icon/skill/skill_1001.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1002.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1003.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1004.png</t>
+  </si>
+  <si>
+    <t>icon/skill/skill_1005.png</t>
+  </si>
+  <si>
+    <t>第一目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_major</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_minor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性(第一目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性(第二目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环(第一目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环(第二目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_t</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura_major#prob_id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura_minor#prob_id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80_2005_1</t>
+  </si>
+  <si>
+    <t>80_2005_2</t>
+  </si>
+  <si>
+    <t>80_2005_3</t>
+  </si>
+  <si>
+    <t>80_2005_4</t>
+  </si>
+  <si>
+    <t>80_2005_5</t>
+  </si>
+  <si>
+    <t>80_2004_1</t>
+  </si>
+  <si>
+    <t>80_2004_2</t>
+  </si>
+  <si>
+    <t>80_2004_3</t>
+  </si>
+  <si>
+    <t>80_2004_4</t>
+  </si>
+  <si>
+    <t>80_2004_5</t>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_200|1_0_30|2_0_50|3_0_20|4_0_5|5_0_40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_250|1_0_30|2_0_55|3_0_22|4_0_6|5_0_45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_300|1_0_30|2_0_60|3_0_24|4_0_7|5_0_50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_350|1_0_30|2_0_65|3_0_26|4_0_8|5_0_55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_400|1_0_30|2_0_70|3_0_28|4_0_9|5_0_60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_passive#id_part_val</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法者光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura_caster#prob_id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_2005_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_2005_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_2005_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_2005_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_2005_5</t>
+  </si>
+  <si>
+    <t>100_2004_1</t>
+  </si>
+  <si>
+    <t>100_2004_2</t>
+  </si>
+  <si>
+    <t>100_2004_3</t>
+  </si>
+  <si>
+    <t>100_2004_4</t>
+  </si>
+  <si>
+    <t>100_2004_5</t>
+  </si>
+  <si>
+    <t>攻击力百分比(第一目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力百分比(第二目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">技能说明 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能可以配置两个攻击目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能结束时，给目标增加光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成伤害，公式：攻击者的攻击值 *atk_ratio + 附加量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加量： 针对不同的类型，不同的计算量，下面另做说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一获得技能就为拥有者加在身上的属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战斗时触发的光环，通常这类光环不可被删除，比如圣骑士的加防光环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aura_passive#prob_id_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一目标没找到，是不能找第二目标的，第二目标用得很少，主要是隔山打牛这种情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多段攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果配置有u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pdate，则每次update时发生攻击（多段攻击），否则在每次技能结束时发生攻击</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio_major</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_major#typ_val</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio_minor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_minor#typ_val</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性类型的说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加固定的攻击值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加当前本体（总攻击量）的百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加当前基础（属性的base部份）的百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加当前VIP等级的百分比  [这个牛B吧]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>...</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>l</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon/skill/skill_1001.png</t>
-  </si>
-  <si>
-    <t>icon/skill/skill_1002.png</t>
-  </si>
-  <si>
-    <t>icon/skill/skill_1003.png</t>
-  </si>
-  <si>
-    <t>icon/skill/skill_1004.png</t>
-  </si>
-  <si>
-    <t>icon/skill/skill_1005.png</t>
-  </si>
-  <si>
-    <t>第一目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_major</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_minor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_passive#id_val</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_major#id_val</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_minor#id_val</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加属性(第一目标)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加属性(第二目标)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环(第一目标)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环(第二目标)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加属性(作为被动技能)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepare_t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aura_major#prob_id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aura_minor#prob_id_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80_2005_1</t>
-  </si>
-  <si>
-    <t>80_2005_2</t>
-  </si>
-  <si>
-    <t>80_2005_3</t>
-  </si>
-  <si>
-    <t>80_2005_4</t>
-  </si>
-  <si>
-    <t>80_2005_5</t>
-  </si>
-  <si>
-    <t>80_2004_1</t>
-  </si>
-  <si>
-    <t>80_2004_2</t>
-  </si>
-  <si>
-    <t>80_2004_3</t>
-  </si>
-  <si>
-    <t>80_2004_4</t>
-  </si>
-  <si>
-    <t>80_2004_5</t>
   </si>
 </sst>
 </file>
@@ -1603,11 +1749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,14 +1765,20 @@
     <col min="6" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="25.75" customWidth="1"/>
-    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.125" customWidth="1"/>
-    <col min="18" max="18" width="37.75" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="23.25" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="14" width="25.125" customWidth="1"/>
+    <col min="15" max="15" width="23.25" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="17" max="18" width="25.125" customWidth="1"/>
+    <col min="19" max="19" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.125" customWidth="1"/>
+    <col min="21" max="21" width="25.875" customWidth="1"/>
+    <col min="22" max="22" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1637,52 +1789,64 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1693,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -1705,13 +1869,13 @@
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>1</v>
@@ -1723,78 +1887,102 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1805,10 +1993,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -1817,22 +2005,22 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>12</v>
@@ -1840,17 +2028,29 @@
       <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1858,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1881,24 +2081,28 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="M5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1906,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1929,15 +2133,22 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="R6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1945,13 +2156,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1968,15 +2179,22 @@
       <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1002</v>
       </c>
@@ -1984,13 +2202,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2007,15 +2225,22 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -2023,13 +2248,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2046,15 +2271,22 @@
       <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -2062,13 +2294,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2085,15 +2317,22 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="R10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -2101,13 +2340,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2124,28 +2363,36 @@
       <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="3" t="s">
-        <v>83</v>
+      <c r="M11" s="3">
+        <v>0.85</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3">
+        <v>0.55000000000000004</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1003</v>
       </c>
@@ -2153,13 +2400,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2176,28 +2423,36 @@
       <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="3" t="s">
-        <v>84</v>
+      <c r="M12" s="3">
+        <v>1</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
+        <v>0.6</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -2205,13 +2460,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2228,28 +2483,36 @@
       <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="3" t="s">
-        <v>85</v>
+      <c r="M13" s="3">
+        <v>1.1499999999999999</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
+        <v>0.65</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1003</v>
       </c>
@@ -2257,13 +2520,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2280,28 +2543,36 @@
       <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="3" t="s">
-        <v>86</v>
+      <c r="M14" s="3">
+        <v>1.3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
+        <v>0.7</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2309,13 +2580,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2332,28 +2603,36 @@
       <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="3" t="s">
-        <v>87</v>
+      <c r="M15" s="3">
+        <v>1.45</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3">
+        <v>0.75</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2361,13 +2640,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2384,19 +2663,24 @@
       <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="S16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1004</v>
       </c>
@@ -2404,13 +2688,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2427,19 +2711,24 @@
       <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="S17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1004</v>
       </c>
@@ -2447,13 +2736,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2470,19 +2759,24 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="S18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -2490,13 +2784,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2513,19 +2807,24 @@
       <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="S19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -2533,13 +2832,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2556,19 +2855,24 @@
       <c r="J20" s="2">
         <v>2</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="S20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -2576,11 +2880,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2597,24 +2901,30 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="N21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1005</v>
       </c>
@@ -2622,11 +2932,11 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2643,24 +2953,30 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="N22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1005</v>
       </c>
@@ -2668,11 +2984,11 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2689,24 +3005,30 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -2714,11 +3036,11 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2735,24 +3057,30 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="N24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2760,11 +3088,11 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2781,21 +3109,27 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="N25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2804,4 +3138,131 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="86.875" customWidth="1"/>
+    <col min="4" max="4" width="78.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -466,230 +466,6 @@
             <charset val="134"/>
           </rPr>
           <t>设置当前攻击量的百分量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 HP
-2 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">速度
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">暴击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">暴伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>7  HP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">8  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">速度加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">9  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">攻击加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">防御加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">11 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">暴击加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">12 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴伤加成</t>
         </r>
       </text>
     </comment>
@@ -1751,9 +1527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="143">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -716,41 +716,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2_100|4_10|5_20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_110|4_15|5_25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_120|4_20|5_30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_130|4_25|5_35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_140|4_30|5_40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_10|2_20|3_30|4_4|5_5</t>
-  </si>
-  <si>
-    <t>1_20|2_22|3_40|4_6|5_10</t>
-  </si>
-  <si>
-    <t>1_30|2_24|3_50|4_8|5_15</t>
-  </si>
-  <si>
-    <t>1_40|2_25|3_60|4_10|5_20</t>
-  </si>
-  <si>
-    <t>1_50|2_26|3_70|4_12|5_25</t>
-  </si>
-  <si>
     <t>ICON</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1101,10 +1066,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>追加当前本体（总攻击量）的百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>追加当前基础（属性的base部份）的百分比</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1118,6 +1079,80 @@
   </si>
   <si>
     <t>l</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_100|2_10</t>
+  </si>
+  <si>
+    <t>1_100|2_10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_110|2_15</t>
+  </si>
+  <si>
+    <t>1_110|2_15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_100|2_10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_120|2_20</t>
+  </si>
+  <si>
+    <t>1_120|2_20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_130|2_25</t>
+  </si>
+  <si>
+    <t>1_130|2_25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_140|2_30</t>
+  </si>
+  <si>
+    <t>1_140|2_30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加当前本体（总攻击量）的百分比  这里填写整数，30代表30%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(未实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(未实现)4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1527,9 +1562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1568,13 +1603,13 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -1583,40 +1618,40 @@
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>13</v>
@@ -1636,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -1681,13 +1716,13 @@
         <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -1704,13 +1739,13 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>19</v>
@@ -1719,40 +1754,40 @@
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>14</v>
@@ -1772,7 +1807,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -1793,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>11</v>
@@ -1805,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>11</v>
@@ -1817,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>12</v>
@@ -1840,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1863,13 +1898,13 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1892,7 +1927,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1938,7 +1973,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1984,7 +2019,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2030,7 +2065,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2076,7 +2111,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2122,7 +2157,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2140,27 +2175,27 @@
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="3">
         <v>0.85</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2182,7 +2217,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2200,27 +2235,27 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="3">
         <v>1</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="3">
         <v>0.6</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2242,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2260,27 +2295,27 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="3">
         <v>1.1499999999999999</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3">
         <v>0.65</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -2302,7 +2337,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2320,27 +2355,27 @@
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="3">
         <v>1.3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="3">
         <v>0.7</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2362,7 +2397,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2380,27 +2415,27 @@
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="3">
         <v>1.45</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="3">
         <v>0.75</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2422,7 +2457,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2440,15 +2475,15 @@
         <v>2</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2470,7 +2505,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2488,15 +2523,15 @@
         <v>2</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L17" s="2"/>
       <c r="O17" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="S17" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -2518,7 +2553,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2536,15 +2571,15 @@
         <v>2</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2566,7 +2601,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2584,15 +2619,15 @@
         <v>2</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2"/>
       <c r="S19" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -2614,7 +2649,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2632,15 +2667,15 @@
         <v>2</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="S20" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2660,7 +2695,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2680,21 +2715,17 @@
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>31</v>
@@ -2712,7 +2743,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2732,21 +2763,17 @@
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>31</v>
@@ -2764,7 +2791,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2784,21 +2811,17 @@
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>31</v>
@@ -2816,7 +2839,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2836,21 +2859,17 @@
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>31</v>
@@ -2868,7 +2887,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2888,21 +2907,17 @@
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="V25" s="3" t="s">
         <v>31</v>
@@ -2921,7 +2936,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2933,68 +2948,68 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -3002,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -3010,31 +3025,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22">
-        <v>3</v>
+      <c r="B22" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
-        <v>4</v>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/skill_技能表.xlsx
+++ b/plan/excel/skill_技能表.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="F1" authorId="0" shapeId="0">
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -407,8 +407,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Author:
-</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -494,7 +493,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -540,7 +539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -557,7 +556,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -639,10 +638,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>l</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -852,7 +847,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1015,7 +1010,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1056,7 +1051,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1132,7 +1127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1143,7 +1138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1155,16 +1150,19 @@
     <t>(未实现)4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>lv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1191,14 +1189,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1258,7 +1256,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1274,7 +1272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1562,34 +1560,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11:N15"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
-    <col min="11" max="11" width="23.25" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="14" width="25.125" customWidth="1"/>
-    <col min="15" max="15" width="23.25" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
-    <col min="17" max="18" width="25.125" customWidth="1"/>
-    <col min="19" max="19" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.125" customWidth="1"/>
-    <col min="21" max="21" width="25.875" customWidth="1"/>
-    <col min="22" max="22" width="37.75" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="14" width="25.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="18" width="25.140625" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.140625" customWidth="1"/>
+    <col min="21" max="21" width="25.85546875" customWidth="1"/>
+    <col min="22" max="22" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1600,16 +1598,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -1618,46 +1616,46 @@
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="U1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1668,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -1686,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>1</v>
@@ -1716,36 +1714,36 @@
         <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>19</v>
@@ -1754,46 +1752,46 @@
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1804,10 +1802,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -1822,13 +1820,13 @@
         <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>11</v>
@@ -1840,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>11</v>
@@ -1852,7 +1850,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>12</v>
@@ -1861,7 +1859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1869,13 +1867,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1898,22 +1896,22 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1921,13 +1919,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1956,10 +1954,10 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1967,13 +1965,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2002,10 +2000,10 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>1002</v>
       </c>
@@ -2013,13 +2011,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2048,10 +2046,10 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -2059,13 +2057,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2094,10 +2092,10 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -2105,13 +2103,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2140,10 +2138,10 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -2151,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2175,35 +2173,35 @@
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="3">
         <v>0.85</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>1003</v>
       </c>
@@ -2211,13 +2209,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2235,35 +2233,35 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="3">
         <v>1</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="3">
         <v>0.6</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -2271,13 +2269,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2295,35 +2293,35 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="3">
         <v>1.1499999999999999</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3">
         <v>0.65</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>1003</v>
       </c>
@@ -2331,13 +2329,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2355,35 +2353,35 @@
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="3">
         <v>1.3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="3">
         <v>0.7</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -2391,13 +2389,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2415,35 +2413,35 @@
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="3">
         <v>1.45</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="3">
         <v>0.75</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -2451,13 +2449,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2475,23 +2473,23 @@
         <v>2</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>1004</v>
       </c>
@@ -2499,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2523,23 +2521,23 @@
         <v>2</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L17" s="2"/>
       <c r="O17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="S17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>1004</v>
       </c>
@@ -2547,13 +2545,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2571,23 +2569,23 @@
         <v>2</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -2595,13 +2593,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2619,23 +2617,23 @@
         <v>2</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="S19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -2643,13 +2641,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2667,23 +2665,23 @@
         <v>2</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" s="2"/>
       <c r="S20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -2691,11 +2689,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2722,16 +2720,16 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>1005</v>
       </c>
@@ -2739,11 +2737,11 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2770,16 +2768,16 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>1005</v>
       </c>
@@ -2787,11 +2785,11 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2818,16 +2816,16 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -2835,11 +2833,11 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2866,16 +2864,16 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>1005</v>
       </c>
@@ -2883,11 +2881,11 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2914,13 +2912,13 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2939,117 +2937,117 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="86.875" customWidth="1"/>
-    <col min="4" max="4" width="78.375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
